--- a/data/расписание.xlsx
+++ b/data/расписание.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrris\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrris\Downloads\schedule-bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC30B068-347E-4B78-BE63-6EC93696D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE194922-804D-42A9-B977-A696CED8E75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="495" windowWidth="29040" windowHeight="15720" tabRatio="357" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="357" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="15">
   <si>
     <t>Комлев Владислав</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Дата</t>
+  </si>
+  <si>
+    <t>Руководитель</t>
+  </si>
+  <si>
+    <t>Владимир Демин</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -170,11 +176,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -186,6 +216,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -520,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8842FC67-D965-4647-AE49-E30964D40D58}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,9 +567,10 @@
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -552,11 +586,14 @@
       <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45838</v>
       </c>
@@ -575,8 +612,11 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45839</v>
       </c>
@@ -595,8 +635,11 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45840</v>
       </c>
@@ -615,8 +658,11 @@
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45841</v>
       </c>
@@ -635,8 +681,11 @@
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45842</v>
       </c>
@@ -655,8 +704,11 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45843</v>
       </c>
@@ -673,8 +725,9 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45844</v>
       </c>
@@ -691,8 +744,9 @@
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45845</v>
       </c>
@@ -711,8 +765,11 @@
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45846</v>
       </c>
@@ -731,8 +788,11 @@
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45847</v>
       </c>
@@ -751,8 +811,11 @@
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45848</v>
       </c>
@@ -771,8 +834,11 @@
       <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45849</v>
       </c>
@@ -791,8 +857,11 @@
       <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45850</v>
       </c>
@@ -809,8 +878,9 @@
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45851</v>
       </c>
@@ -827,8 +897,9 @@
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45852</v>
       </c>
@@ -847,8 +918,11 @@
       <c r="F16" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45853</v>
       </c>
@@ -867,8 +941,11 @@
       <c r="F17" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45854</v>
       </c>
@@ -887,8 +964,11 @@
       <c r="F18" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45855</v>
       </c>
@@ -907,8 +987,11 @@
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45856</v>
       </c>
@@ -927,8 +1010,11 @@
       <c r="F20" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45857</v>
       </c>
@@ -945,8 +1031,9 @@
       <c r="F21" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45858</v>
       </c>
@@ -963,8 +1050,9 @@
       <c r="F22" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45859</v>
       </c>
@@ -983,8 +1071,11 @@
       <c r="F23" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45860</v>
       </c>
@@ -1003,8 +1094,11 @@
       <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45861</v>
       </c>
@@ -1023,8 +1117,11 @@
       <c r="F25" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45862</v>
       </c>
@@ -1043,8 +1140,11 @@
       <c r="F26" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45863</v>
       </c>
@@ -1063,8 +1163,11 @@
       <c r="F27" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45864</v>
       </c>
@@ -1081,8 +1184,9 @@
       <c r="F28" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45865</v>
       </c>
@@ -1099,8 +1203,9 @@
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45866</v>
       </c>
@@ -1119,8 +1224,11 @@
       <c r="F30" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45867</v>
       </c>
@@ -1139,8 +1247,11 @@
       <c r="F31" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45868</v>
       </c>
@@ -1159,8 +1270,11 @@
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45869</v>
       </c>
@@ -1179,8 +1293,11 @@
       <c r="F33" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45870</v>
       </c>
@@ -1199,8 +1316,11 @@
       <c r="F34" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45871</v>
       </c>
@@ -1217,8 +1337,9 @@
       <c r="F35" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45872</v>
       </c>
@@ -1235,6 +1356,7 @@
       <c r="F36" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/расписание.xlsx
+++ b/data/расписание.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrris\Downloads\schedule-bot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrris\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE194922-804D-42A9-B977-A696CED8E75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2F440F-84A1-4D2F-83DF-E8DA0E93422D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="357" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
+    <workbookView xWindow="-28920" yWindow="495" windowWidth="29040" windowHeight="15720" tabRatio="357" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="15">
   <si>
     <t>Комлев Владислав</t>
   </si>
@@ -80,7 +80,7 @@
     <t>Руководитель</t>
   </si>
   <si>
-    <t>Владимир Демин</t>
+    <t>Демин Владимир</t>
   </si>
 </sst>
 </file>
@@ -120,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,11 +186,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -194,9 +202,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -204,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -216,9 +222,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -553,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8842FC67-D965-4647-AE49-E30964D40D58}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +577,7 @@
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -586,10 +597,10 @@
       <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -612,7 +623,7 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -635,7 +646,7 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -658,7 +669,7 @@
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -681,7 +692,7 @@
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -704,7 +715,7 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -725,7 +736,6 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -744,7 +754,6 @@
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -765,7 +774,7 @@
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -788,7 +797,7 @@
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -811,7 +820,7 @@
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -834,7 +843,7 @@
       <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -857,7 +866,7 @@
       <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -878,7 +887,6 @@
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -897,7 +905,6 @@
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -918,7 +925,7 @@
       <c r="F16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -941,7 +948,7 @@
       <c r="F17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -964,7 +971,7 @@
       <c r="F18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -987,7 +994,7 @@
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1010,7 +1017,7 @@
       <c r="F20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1031,7 +1038,6 @@
       <c r="F21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -1050,7 +1056,6 @@
       <c r="F22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1071,7 +1076,7 @@
       <c r="F23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1094,7 +1099,7 @@
       <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1117,7 +1122,7 @@
       <c r="F25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1140,7 +1145,7 @@
       <c r="F26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1163,7 +1168,7 @@
       <c r="F27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1184,7 +1189,6 @@
       <c r="F28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1203,7 +1207,6 @@
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1224,7 +1227,7 @@
       <c r="F30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1247,7 +1250,7 @@
       <c r="F31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1270,7 +1273,7 @@
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1293,7 +1296,7 @@
       <c r="F33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1316,7 +1319,7 @@
       <c r="F34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1337,10 +1340,9 @@
       <c r="F35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="7">
         <v>45872</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1356,9 +1358,637 @@
       <c r="F36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>45873</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>45874</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>45875</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>45876</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>45877</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>45878</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>45879</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>45880</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>45881</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>45882</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>45883</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>45884</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>45885</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>45886</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>45887</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>45888</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>45889</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>45890</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>45891</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>45892</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>45893</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>45894</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>45895</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>45896</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>45897</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>45898</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>45899</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>45900</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/расписание.xlsx
+++ b/data/расписание.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrris\Downloads\schedule-bot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrris\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE194922-804D-42A9-B977-A696CED8E75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ED48C4-45C2-4888-8EDB-7F8155F41B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="357" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
+    <workbookView xWindow="-28920" yWindow="495" windowWidth="29040" windowHeight="15720" tabRatio="357" activeTab="1" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hybris" sheetId="3" r:id="rId1"/>
+    <sheet name="1 Линия" sheetId="4" r:id="rId2"/>
+    <sheet name="ГСМАиЦП" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="33">
   <si>
     <t>Комлев Владислав</t>
   </si>
@@ -80,14 +82,68 @@
     <t>Руководитель</t>
   </si>
   <si>
-    <t>Владимир Демин</t>
+    <t>Демин Владимир</t>
+  </si>
+  <si>
+    <t>Первая эскалация</t>
+  </si>
+  <si>
+    <t>Вторая эскалация</t>
+  </si>
+  <si>
+    <t>Неделя</t>
+  </si>
+  <si>
+    <t>18.08 9:00 - 25.08 9:00</t>
+  </si>
+  <si>
+    <t>25.08 9:00 - 01.09 9:00</t>
+  </si>
+  <si>
+    <t>Кузовлева Светлана</t>
+  </si>
+  <si>
+    <t>Парфенов Глеб</t>
+  </si>
+  <si>
+    <t>Парфенов Глеб, Чупринский Михаил</t>
+  </si>
+  <si>
+    <t>Чупринский Михаил, Кузовлева Светлана</t>
+  </si>
+  <si>
+    <t>Дневное дежурство</t>
+  </si>
+  <si>
+    <t>Ночное дежурство</t>
+  </si>
+  <si>
+    <t>Старший специалист</t>
+  </si>
+  <si>
+    <t>Володин Алексей</t>
+  </si>
+  <si>
+    <t>Пенкин Максим</t>
+  </si>
+  <si>
+    <t>Оборотов Василий</t>
+  </si>
+  <si>
+    <t>Андрианов Владимир, Вильмискин Алексей</t>
+  </si>
+  <si>
+    <t>Кобяков Кирилл</t>
+  </si>
+  <si>
+    <t>Вавилова Анна</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +175,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF34343C"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,11 +247,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -194,9 +263,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -204,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -216,9 +283,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -552,25 +627,311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8842FC67-D965-4647-AE49-E30964D40D58}">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E189872A-DE30-4CF8-AAD7-6E4E006B89B5}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="12"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="12"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03F807C-6ACF-4A12-A9D3-ED5B0F195914}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="12">
+        <v>45890</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12">
+        <v>45891</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12">
+        <v>45892</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12">
+        <v>45893</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12">
+        <v>45894</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12">
+        <v>45895</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12">
+        <v>45896</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12">
+        <v>45897</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="12">
+        <v>45899</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="12">
+        <v>45900</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8842FC67-D965-4647-AE49-E30964D40D58}">
+  <dimension ref="A1:G72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -586,14 +947,14 @@
       <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>45838</v>
       </c>
@@ -612,11 +973,11 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>45839</v>
       </c>
@@ -635,11 +996,11 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>45840</v>
       </c>
@@ -658,11 +1019,11 @@
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>45841</v>
       </c>
@@ -681,11 +1042,11 @@
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>45842</v>
       </c>
@@ -704,11 +1065,11 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>45843</v>
       </c>
@@ -725,9 +1086,8 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>45844</v>
       </c>
@@ -744,9 +1104,8 @@
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>45845</v>
       </c>
@@ -765,11 +1124,11 @@
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>45846</v>
       </c>
@@ -788,11 +1147,11 @@
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>45847</v>
       </c>
@@ -811,11 +1170,11 @@
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>45848</v>
       </c>
@@ -834,11 +1193,11 @@
       <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>45849</v>
       </c>
@@ -857,11 +1216,11 @@
       <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" customHeight="1">
       <c r="A14" s="4">
         <v>45850</v>
       </c>
@@ -878,9 +1237,8 @@
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>45851</v>
       </c>
@@ -897,9 +1255,8 @@
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>45852</v>
       </c>
@@ -918,11 +1275,11 @@
       <c r="F16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>45853</v>
       </c>
@@ -941,11 +1298,11 @@
       <c r="F17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>45854</v>
       </c>
@@ -964,11 +1321,11 @@
       <c r="F18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="4">
         <v>45855</v>
       </c>
@@ -987,11 +1344,11 @@
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="4">
         <v>45856</v>
       </c>
@@ -1010,11 +1367,11 @@
       <c r="F20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="4">
         <v>45857</v>
       </c>
@@ -1031,9 +1388,8 @@
       <c r="F21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="4">
         <v>45858</v>
       </c>
@@ -1050,9 +1406,8 @@
       <c r="F22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="4">
         <v>45859</v>
       </c>
@@ -1071,11 +1426,11 @@
       <c r="F23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="4">
         <v>45860</v>
       </c>
@@ -1094,11 +1449,11 @@
       <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="4">
         <v>45861</v>
       </c>
@@ -1117,11 +1472,11 @@
       <c r="F25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="4">
         <v>45862</v>
       </c>
@@ -1140,11 +1495,11 @@
       <c r="F26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="4">
         <v>45863</v>
       </c>
@@ -1163,11 +1518,11 @@
       <c r="F27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="4">
         <v>45864</v>
       </c>
@@ -1184,9 +1539,8 @@
       <c r="F28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="4">
         <v>45865</v>
       </c>
@@ -1203,9 +1557,8 @@
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="4">
         <v>45866</v>
       </c>
@@ -1224,11 +1577,11 @@
       <c r="F30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="4">
         <v>45867</v>
       </c>
@@ -1247,11 +1600,11 @@
       <c r="F31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="4">
         <v>45868</v>
       </c>
@@ -1270,11 +1623,11 @@
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="4">
         <v>45869</v>
       </c>
@@ -1293,11 +1646,11 @@
       <c r="F33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="4">
         <v>45870</v>
       </c>
@@ -1316,11 +1669,11 @@
       <c r="F34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="4">
         <v>45871</v>
       </c>
@@ -1337,10 +1690,9 @@
       <c r="F35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7">
         <v>45872</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1356,9 +1708,637 @@
       <c r="F36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="7">
+        <v>45873</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="7">
+        <v>45874</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="7">
+        <v>45875</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="7">
+        <v>45876</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7">
+        <v>45877</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7">
+        <v>45878</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="7">
+        <v>45879</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="7">
+        <v>45880</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="7">
+        <v>45881</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="7">
+        <v>45882</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="7">
+        <v>45883</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="7">
+        <v>45884</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="7">
+        <v>45885</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="7">
+        <v>45886</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="7">
+        <v>45887</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="7">
+        <v>45888</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="7">
+        <v>45889</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="7">
+        <v>45890</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="7">
+        <v>45891</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="7">
+        <v>45892</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="7">
+        <v>45893</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4">
+        <v>45894</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="4">
+        <v>45895</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="4">
+        <v>45896</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="4">
+        <v>45897</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="4">
+        <v>45898</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="4">
+        <v>45899</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="4">
+        <v>45900</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/расписание.xlsx
+++ b/data/расписание.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrris\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ED48C4-45C2-4888-8EDB-7F8155F41B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4ED07F-8712-4921-8911-49F8D5D14DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="495" windowWidth="29040" windowHeight="15720" tabRatio="357" activeTab="1" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
+    <workbookView xWindow="-28920" yWindow="495" windowWidth="29040" windowHeight="15720" tabRatio="357" activeTab="2" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybris" sheetId="3" r:id="rId1"/>
     <sheet name="1 Линия" sheetId="4" r:id="rId2"/>
-    <sheet name="ГСМАиЦП" sheetId="2" r:id="rId3"/>
+    <sheet name="2 линия" sheetId="5" r:id="rId3"/>
+    <sheet name="ГСМАиЦП" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="43">
   <si>
     <t>Комлев Владислав</t>
   </si>
@@ -137,6 +138,36 @@
   </si>
   <si>
     <t>Вавилова Анна</t>
+  </si>
+  <si>
+    <t>Офис</t>
+  </si>
+  <si>
+    <t>Аутсорс</t>
+  </si>
+  <si>
+    <t>Удаленная помощь</t>
+  </si>
+  <si>
+    <t>Рыбаков Максим</t>
+  </si>
+  <si>
+    <t>Пантюх Александр</t>
+  </si>
+  <si>
+    <t>Короткевич Артем</t>
+  </si>
+  <si>
+    <t>Короткевич Артем, Батуров Вячеслав</t>
+  </si>
+  <si>
+    <t>Батуров Вячеслав</t>
+  </si>
+  <si>
+    <t>Зырянов Даниил</t>
+  </si>
+  <si>
+    <t>Громов Лев</t>
   </si>
 </sst>
 </file>
@@ -712,10 +743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03F807C-6ACF-4A12-A9D3-ED5B0F195914}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -726,7 +757,7 @@
     <col min="4" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -742,8 +773,11 @@
       <c r="E1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="12">
         <v>45890</v>
       </c>
@@ -760,7 +794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="12">
         <v>45891</v>
       </c>
@@ -777,7 +811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="12">
         <v>45892</v>
       </c>
@@ -788,7 +822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="12">
         <v>45893</v>
       </c>
@@ -799,7 +833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="12">
         <v>45894</v>
       </c>
@@ -816,7 +850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="12">
         <v>45895</v>
       </c>
@@ -833,7 +867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="12">
         <v>45896</v>
       </c>
@@ -850,7 +884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="12">
         <v>45897</v>
       </c>
@@ -867,7 +901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="12">
         <v>45898</v>
       </c>
@@ -884,7 +918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="12">
         <v>45899</v>
       </c>
@@ -895,7 +929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="12">
         <v>45900</v>
       </c>
@@ -906,7 +940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="12"/>
     </row>
   </sheetData>
@@ -915,6 +949,234 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E517F2-1B90-467E-A143-F03ACB3900D7}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="12">
+        <v>45890</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12">
+        <v>45891</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12">
+        <v>45892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="12">
+        <v>45894</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12">
+        <v>45895</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12">
+        <v>45896</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12">
+        <v>45897</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12">
+        <v>45899</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12">
+        <v>45900</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8842FC67-D965-4647-AE49-E30964D40D58}">
   <dimension ref="A1:G72"/>
   <sheetViews>

--- a/data/расписание.xlsx
+++ b/data/расписание.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrris\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4ED07F-8712-4921-8911-49F8D5D14DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CCCC9D-D4CD-47FF-9E30-A658F5EBC1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="495" windowWidth="29040" windowHeight="15720" tabRatio="357" activeTab="2" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
+    <workbookView xWindow="-28920" yWindow="495" windowWidth="29040" windowHeight="15720" tabRatio="357" activeTab="3" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybris" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="47">
   <si>
     <t>Комлев Владислав</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Администрирование</t>
   </si>
   <si>
-    <t>Отсутствует</t>
-  </si>
-  <si>
     <t>Дата</t>
   </si>
   <si>
@@ -168,6 +165,21 @@
   </si>
   <si>
     <t>Громов Лев</t>
+  </si>
+  <si>
+    <t>Беспалов Роман</t>
+  </si>
+  <si>
+    <t>Комлев Владислав, Беспалов Роман</t>
+  </si>
+  <si>
+    <t>Крутилев Владимир, Беспалов Роман</t>
+  </si>
+  <si>
+    <t>Демин Владимир, Полунин Вадим</t>
+  </si>
+  <si>
+    <t>Ведущий специалист</t>
   </si>
 </sst>
 </file>
@@ -238,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -261,48 +273,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -312,19 +287,15 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -662,7 +633,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,67 +645,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="12" t="s">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="8"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="8"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="8"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="8"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="8"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="8"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="8"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="8"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="8"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -759,189 +730,189 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12">
+      <c r="A2" s="8">
         <v>45890</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8">
+        <v>45891</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8">
+        <v>45892</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="12">
-        <v>45891</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8">
+        <v>45893</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8">
+        <v>45894</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>45895</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
+        <v>45896</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="12">
-        <v>45892</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>45897</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>45898</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>45899</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="12">
-        <v>45893</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>45900</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="12">
-        <v>45894</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="12">
-        <v>45895</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="12">
-        <v>45896</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="12">
-        <v>45897</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="12">
-        <v>45898</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="12">
-        <v>45899</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="12">
-        <v>45900</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12"/>
+      <c r="A13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -952,7 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E517F2-1B90-467E-A143-F03ACB3900D7}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -969,206 +940,206 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="12">
+      <c r="A2" s="8">
         <v>45890</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>45891</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>45892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>45894</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8">
+        <v>45895</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="12">
-        <v>45891</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8">
+        <v>45896</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8">
+        <v>45897</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="12">
-        <v>45892</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="12">
-        <v>45893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="12">
-        <v>45894</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
+        <v>45898</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="12">
-        <v>45895</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>45899</v>
+      </c>
+      <c r="G11" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="12">
-        <v>45896</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>45900</v>
+      </c>
+      <c r="G12" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="12">
-        <v>45897</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="12">
-        <v>45898</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="12">
-        <v>45899</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="12">
-        <v>45900</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1178,45 +1149,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8842FC67-D965-4647-AE49-E30964D40D58}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>45838</v>
       </c>
@@ -1229,17 +1205,16 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>45839</v>
       </c>
@@ -1252,17 +1227,16 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>45840</v>
       </c>
@@ -1275,17 +1249,16 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>45841</v>
       </c>
@@ -1298,17 +1271,16 @@
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>45842</v>
       </c>
@@ -1321,17 +1293,16 @@
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>45843</v>
       </c>
@@ -1342,14 +1313,14 @@
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>45844</v>
       </c>
@@ -1360,14 +1331,14 @@
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>45845</v>
       </c>
@@ -1380,17 +1351,16 @@
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>45846</v>
       </c>
@@ -1403,17 +1373,16 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>45847</v>
       </c>
@@ -1426,17 +1395,16 @@
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>45848</v>
       </c>
@@ -1449,17 +1417,16 @@
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>45849</v>
       </c>
@@ -1472,17 +1439,16 @@
       <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1">
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1">
       <c r="A14" s="4">
         <v>45850</v>
       </c>
@@ -1493,14 +1459,14 @@
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>45851</v>
       </c>
@@ -1511,14 +1477,14 @@
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>45852</v>
       </c>
@@ -1531,17 +1497,16 @@
       <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>45853</v>
       </c>
@@ -1554,17 +1519,16 @@
       <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>45854</v>
       </c>
@@ -1577,17 +1541,16 @@
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>45855</v>
       </c>
@@ -1600,17 +1563,16 @@
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>45856</v>
       </c>
@@ -1623,17 +1585,16 @@
       <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>45857</v>
       </c>
@@ -1644,14 +1605,14 @@
       <c r="D21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>45858</v>
       </c>
@@ -1662,14 +1623,14 @@
       <c r="D22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>45859</v>
       </c>
@@ -1682,17 +1643,16 @@
       <c r="D23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>45860</v>
       </c>
@@ -1705,17 +1665,16 @@
       <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>45861</v>
       </c>
@@ -1728,17 +1687,16 @@
       <c r="D25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>45862</v>
       </c>
@@ -1751,17 +1709,16 @@
       <c r="D26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>45863</v>
       </c>
@@ -1774,17 +1731,16 @@
       <c r="D27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>45864</v>
       </c>
@@ -1795,14 +1751,14 @@
       <c r="D28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>45865</v>
       </c>
@@ -1813,14 +1769,14 @@
       <c r="D29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>45866</v>
       </c>
@@ -1833,17 +1789,16 @@
       <c r="D30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>45867</v>
       </c>
@@ -1856,17 +1811,16 @@
       <c r="D31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>45868</v>
       </c>
@@ -1879,17 +1833,16 @@
       <c r="D32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>45869</v>
       </c>
@@ -1902,17 +1855,16 @@
       <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>45870</v>
       </c>
@@ -1925,17 +1877,16 @@
       <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>45871</v>
       </c>
@@ -1946,15 +1897,15 @@
       <c r="D35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="7">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4">
         <v>45872</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1964,18 +1915,18 @@
       <c r="D36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="7">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4">
         <v>45873</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1984,21 +1935,20 @@
       <c r="D37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="7">
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4">
         <v>45874</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2007,18 +1957,17 @@
       <c r="D38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="7">
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4">
         <v>45875</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2030,18 +1979,17 @@
       <c r="D39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="7">
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4">
         <v>45876</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2053,18 +2001,17 @@
       <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="7">
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4">
         <v>45877</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2076,18 +2023,17 @@
       <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="7">
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4">
         <v>45878</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2097,15 +2043,15 @@
       <c r="D42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="7">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4">
         <v>45879</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2115,15 +2061,15 @@
       <c r="D43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="7">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4">
         <v>45880</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2135,18 +2081,17 @@
       <c r="D44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="7">
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4">
         <v>45881</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2158,18 +2103,17 @@
       <c r="D45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="7">
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4">
         <v>45882</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2181,18 +2125,17 @@
       <c r="D46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="7">
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4">
         <v>45883</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2204,18 +2147,17 @@
       <c r="D47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="7">
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4">
         <v>45884</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2227,18 +2169,17 @@
       <c r="D48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="7">
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4">
         <v>45885</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2248,15 +2189,15 @@
       <c r="D49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="7">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4">
         <v>45886</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2266,15 +2207,15 @@
       <c r="D50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="7">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4">
         <v>45887</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2286,18 +2227,17 @@
       <c r="D51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="7">
+      <c r="G51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4">
         <v>45888</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2309,18 +2249,17 @@
       <c r="D52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="7">
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4">
         <v>45889</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2332,18 +2271,17 @@
       <c r="D53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="7">
+      <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4">
         <v>45890</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2355,18 +2293,17 @@
       <c r="D54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="7">
+      <c r="G54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="4">
         <v>45891</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2378,18 +2315,17 @@
       <c r="D55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="7">
+      <c r="G55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="4">
         <v>45892</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2399,15 +2335,15 @@
       <c r="D56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="7">
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="4">
         <v>45893</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2417,14 +2353,14 @@
       <c r="D57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="4">
         <v>45894</v>
       </c>
@@ -2437,17 +2373,16 @@
       <c r="D58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="G58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="4">
         <v>45895</v>
       </c>
@@ -2460,17 +2395,16 @@
       <c r="D59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="G59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="4">
         <v>45896</v>
       </c>
@@ -2483,17 +2417,16 @@
       <c r="D60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="G60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="4">
         <v>45897</v>
       </c>
@@ -2506,17 +2439,16 @@
       <c r="D61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="G61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="4">
         <v>45898</v>
       </c>
@@ -2529,17 +2461,16 @@
       <c r="D62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="G62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="4">
         <v>45899</v>
       </c>
@@ -2550,14 +2481,14 @@
       <c r="D63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="4">
         <v>45900</v>
       </c>
@@ -2568,36 +2499,794 @@
       <c r="D64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="4"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="4"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="4"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="4"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="4"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="4">
+        <v>45901</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="4">
+        <v>45902</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="4">
+        <v>45903</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="4">
+        <v>45904</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="4">
+        <v>45905</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="4">
+        <v>45906</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="4">
+        <v>45907</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="4">
+        <v>45908</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="4">
+        <v>45909</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="4">
+        <v>45910</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="4">
+        <v>45911</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="4">
+        <v>45912</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="4">
+        <v>45913</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="4">
+        <v>45914</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="4">
+        <v>45915</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="4">
+        <v>45916</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="4">
+        <v>45917</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="4">
+        <v>45918</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="4">
+        <v>45919</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="4">
+        <v>45920</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="4">
+        <v>45921</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="4">
+        <v>45922</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="4">
+        <v>45923</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="4">
+        <v>45924</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="4">
+        <v>45925</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="4">
+        <v>45926</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="4">
+        <v>45927</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="4">
+        <v>45928</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="4">
+        <v>45929</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="4">
+        <v>45930</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="4">
+        <v>45931</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="4">
+        <v>45932</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="4">
+        <v>45933</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="4">
+        <v>45934</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="4">
+        <v>45935</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/расписание.xlsx
+++ b/data/расписание.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrris\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CCCC9D-D4CD-47FF-9E30-A658F5EBC1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55260816-C57C-4B4F-A791-E04303C4F9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="495" windowWidth="29040" windowHeight="15720" tabRatio="357" activeTab="3" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="357" activeTab="3" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybris" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="50">
   <si>
     <t>Комлев Владислав</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>Ведущий специалист</t>
+  </si>
+  <si>
+    <t>Батуров Вячеслав, Зырянов Даниил</t>
+  </si>
+  <si>
+    <t>Пак Тимур</t>
+  </si>
+  <si>
+    <t>Рыбаков Максим, Короткевич Артем</t>
   </si>
 </sst>
 </file>
@@ -224,7 +233,7 @@
       <name val="Liberation Sans"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +255,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -288,14 +303,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -645,7 +661,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
@@ -656,18 +672,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
@@ -678,34 +694,34 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="7"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="7"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -714,10 +730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03F807C-6ACF-4A12-A9D3-ED5B0F195914}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -729,190 +745,606 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8">
+      <c r="A2" s="11">
         <v>45890</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8">
+      <c r="A3" s="11">
         <v>45891</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8">
+      <c r="A4" s="11">
         <v>45892</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8">
+      <c r="A5" s="11">
         <v>45893</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8">
+      <c r="A6" s="11">
         <v>45894</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8">
+      <c r="A7" s="11">
         <v>45895</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8">
+      <c r="A8" s="11">
         <v>45896</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8">
+      <c r="A9" s="11">
         <v>45897</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8">
+      <c r="A10" s="11">
         <v>45898</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8">
+      <c r="A11" s="11">
         <v>45899</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8">
+      <c r="A12" s="11">
         <v>45900</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
+      <c r="A13" s="11">
+        <v>45901</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="11">
+        <v>45902</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="11">
+        <v>45903</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="11">
+        <v>45904</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11">
+        <v>45905</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11">
+        <v>45906</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11">
+        <v>45907</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11">
+        <v>45908</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11">
+        <v>45909</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11">
+        <v>45910</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11">
+        <v>45911</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="11">
+        <v>45912</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="11">
+        <v>45913</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="11">
+        <v>45914</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="11">
+        <v>45915</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="11">
+        <v>45916</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="11">
+        <v>45917</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="11">
+        <v>45918</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="11">
+        <v>45919</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="11">
+        <v>45920</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="11">
+        <v>45921</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="11">
+        <v>45922</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="11">
+        <v>45923</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="11">
+        <v>45924</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="11">
+        <v>45925</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="11">
+        <v>45926</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="11">
+        <v>45927</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="11">
+        <v>45928</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="11">
+        <v>45929</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="11">
+        <v>45930</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="11">
+        <v>45931</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="11">
+        <v>45932</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="11">
+        <v>45933</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="11">
+        <v>45934</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="11">
+        <v>45935</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -921,226 +1353,927 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E517F2-1B90-467E-A143-F03ACB3900D7}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8">
+      <c r="A2" s="11">
         <v>45890</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="8">
+      <c r="A3" s="11">
         <v>45891</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8">
+      <c r="A4" s="11">
         <v>45892</v>
       </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8">
+      <c r="A5" s="11">
         <v>45893</v>
       </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8">
+      <c r="A6" s="11">
         <v>45894</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8">
+      <c r="A7" s="11">
         <v>45895</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8">
+      <c r="A8" s="11">
         <v>45896</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8">
+      <c r="A9" s="11">
         <v>45897</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8">
+      <c r="A10" s="11">
         <v>45898</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8">
+      <c r="A11" s="11">
         <v>45899</v>
       </c>
-      <c r="G11" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="8">
+      <c r="A12" s="11">
         <v>45900</v>
       </c>
-      <c r="G12" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11">
+        <v>45901</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11">
+        <v>45902</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11">
+        <v>45903</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="11">
+        <v>45904</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="11">
+        <v>45905</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="11">
+        <v>45906</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="11">
+        <v>45907</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="11">
+        <v>45908</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="11">
+        <v>45909</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="11">
+        <v>45910</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="11">
+        <v>45911</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="11">
+        <v>45912</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="11">
+        <v>45913</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="11">
+        <v>45914</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="11">
+        <v>45915</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="11">
+        <v>45916</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="11">
+        <v>45917</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="11">
+        <v>45918</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="11">
+        <v>45919</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="11">
+        <v>45920</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="11">
+        <v>45921</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="11">
+        <v>45922</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="11">
+        <v>45923</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="11">
+        <v>45924</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="11">
+        <v>45925</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="11">
+        <v>45926</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="11">
+        <v>45927</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="11">
+        <v>45928</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="11">
+        <v>45929</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="11">
+        <v>45930</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="11">
+        <v>45931</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="11">
+        <v>45932</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="11">
+        <v>45933</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="11">
+        <v>45934</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="11">
+        <v>45935</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1149,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8842FC67-D965-4647-AE49-E30964D40D58}">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1926,7 +3059,7 @@
       <c r="A37" s="4">
         <v>45873</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1948,7 +3081,7 @@
       <c r="A38" s="4">
         <v>45874</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2506,11 +3639,11 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:8">
       <c r="A65" s="4">
         <v>45901</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="1"/>
@@ -2528,11 +3661,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:8">
       <c r="A66" s="4">
         <v>45902</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="1"/>
@@ -2550,7 +3683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:8">
       <c r="A67" s="4">
         <v>45903</v>
       </c>
@@ -2572,7 +3705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:8">
       <c r="A68" s="4">
         <v>45904</v>
       </c>
@@ -2594,7 +3727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:8">
       <c r="A69" s="4">
         <v>45905</v>
       </c>
@@ -2616,11 +3749,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:8">
       <c r="A70" s="4">
         <v>45906</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="1"/>
@@ -2633,14 +3766,12 @@
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-    </row>
-    <row r="71" spans="1:10">
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="4">
         <v>45907</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="1"/>
@@ -2653,10 +3784,8 @@
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-    </row>
-    <row r="72" spans="1:10">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="4">
         <v>45908</v>
       </c>
@@ -2675,10 +3804,8 @@
       <c r="H72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-    </row>
-    <row r="73" spans="1:10">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="4">
         <v>45909</v>
       </c>
@@ -2697,14 +3824,12 @@
       <c r="H73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-    </row>
-    <row r="74" spans="1:10">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="4">
         <v>45910</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2721,14 +3846,12 @@
       <c r="H74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-    </row>
-    <row r="75" spans="1:10">
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="4">
         <v>45911</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -2745,14 +3868,12 @@
       <c r="H75" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-    </row>
-    <row r="76" spans="1:10">
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="4">
         <v>45912</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2769,10 +3890,8 @@
       <c r="H76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-    </row>
-    <row r="77" spans="1:10">
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="4">
         <v>45913</v>
       </c>
@@ -2787,10 +3906,8 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-    </row>
-    <row r="78" spans="1:10">
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="4">
         <v>45914</v>
       </c>
@@ -2805,10 +3922,8 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-    </row>
-    <row r="79" spans="1:10">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="4">
         <v>45915</v>
       </c>
@@ -2827,10 +3942,8 @@
       <c r="H79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-    </row>
-    <row r="80" spans="1:10">
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="4">
         <v>45916</v>
       </c>
@@ -2849,10 +3962,8 @@
       <c r="H80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-    </row>
-    <row r="81" spans="1:12">
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="4">
         <v>45917</v>
       </c>
@@ -2871,10 +3982,8 @@
       <c r="H81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-    </row>
-    <row r="82" spans="1:12">
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="4">
         <v>45918</v>
       </c>
@@ -2893,10 +4002,8 @@
       <c r="H82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-    </row>
-    <row r="83" spans="1:12">
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="4">
         <v>45919</v>
       </c>
@@ -2915,10 +4022,8 @@
       <c r="H83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-    </row>
-    <row r="84" spans="1:12">
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="4">
         <v>45920</v>
       </c>
@@ -2935,10 +4040,8 @@
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-    </row>
-    <row r="85" spans="1:12">
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="4">
         <v>45921</v>
       </c>
@@ -2955,10 +4058,8 @@
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-    </row>
-    <row r="86" spans="1:12">
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="4">
         <v>45922</v>
       </c>
@@ -2981,10 +4082,8 @@
       <c r="H86" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-    </row>
-    <row r="87" spans="1:12">
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="4">
         <v>45923</v>
       </c>
@@ -3007,10 +4106,8 @@
       <c r="H87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-    </row>
-    <row r="88" spans="1:12">
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="4">
         <v>45924</v>
       </c>
@@ -3033,10 +4130,8 @@
       <c r="H88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-    </row>
-    <row r="89" spans="1:12">
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="4">
         <v>45925</v>
       </c>
@@ -3059,12 +4154,8 @@
       <c r="H89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-    </row>
-    <row r="90" spans="1:12">
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="4">
         <v>45926</v>
       </c>
@@ -3087,16 +4178,12 @@
       <c r="H90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-    </row>
-    <row r="91" spans="1:12">
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="4">
         <v>45927</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C91" s="1"/>
@@ -3109,16 +4196,12 @@
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-    </row>
-    <row r="92" spans="1:12">
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="4">
         <v>45928</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C92" s="1"/>
@@ -3132,11 +4215,11 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:8">
       <c r="A93" s="4">
         <v>45929</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -3156,11 +4239,11 @@
       </c>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:8">
       <c r="A94" s="4">
         <v>45930</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -3180,11 +4263,11 @@
       </c>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:8">
       <c r="A95" s="4">
         <v>45931</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -3204,11 +4287,11 @@
       </c>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:8">
       <c r="A96" s="4">
         <v>45932</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -3232,7 +4315,7 @@
       <c r="A97" s="4">
         <v>45933</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -3256,7 +4339,7 @@
       <c r="A98" s="4">
         <v>45934</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="1"/>
@@ -3274,7 +4357,7 @@
       <c r="A99" s="4">
         <v>45935</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C99" s="1"/>

--- a/data/расписание.xlsx
+++ b/data/расписание.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrris\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55260816-C57C-4B4F-A791-E04303C4F9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA181AE-AEFB-4E87-9AD3-57C8F476C88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="357" activeTab="3" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
+    <workbookView xWindow="-28920" yWindow="495" windowWidth="29040" windowHeight="15720" tabRatio="357" activeTab="3" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybris" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="127">
   <si>
     <t>Комлев Владислав</t>
   </si>
@@ -170,15 +170,6 @@
     <t>Беспалов Роман</t>
   </si>
   <si>
-    <t>Комлев Владислав, Беспалов Роман</t>
-  </si>
-  <si>
-    <t>Крутилев Владимир, Беспалов Роман</t>
-  </si>
-  <si>
-    <t>Демин Владимир, Полунин Вадим</t>
-  </si>
-  <si>
     <t>Ведущий специалист</t>
   </si>
   <si>
@@ -189,6 +180,246 @@
   </si>
   <si>
     <t>Рыбаков Максим, Короткевич Артем</t>
+  </si>
+  <si>
+    <t>04.08.2025</t>
+  </si>
+  <si>
+    <t>Оборотов Василий, Вильмискин Алексей</t>
+  </si>
+  <si>
+    <t>05.08.2025</t>
+  </si>
+  <si>
+    <t>06.08.2025</t>
+  </si>
+  <si>
+    <t>Пенкин Максим, Вильмискин Алексей</t>
+  </si>
+  <si>
+    <t>Андрианов Владимир</t>
+  </si>
+  <si>
+    <t>07.08.2025</t>
+  </si>
+  <si>
+    <t>08.08.2025</t>
+  </si>
+  <si>
+    <t>09.08.2025</t>
+  </si>
+  <si>
+    <t>10.08.2025</t>
+  </si>
+  <si>
+    <t>11.08.2025</t>
+  </si>
+  <si>
+    <t>Вильмискин Алексей</t>
+  </si>
+  <si>
+    <t>12.08.2025</t>
+  </si>
+  <si>
+    <t>13.08.2025</t>
+  </si>
+  <si>
+    <t>14.08.2025</t>
+  </si>
+  <si>
+    <t>Вильмискин Алексей, Андрианов Владимир</t>
+  </si>
+  <si>
+    <t>15.08.2025</t>
+  </si>
+  <si>
+    <t>16.08.2025</t>
+  </si>
+  <si>
+    <t>17.08.2025</t>
+  </si>
+  <si>
+    <t>18.08.2025</t>
+  </si>
+  <si>
+    <t>19.08.2025</t>
+  </si>
+  <si>
+    <t>20.08.2025</t>
+  </si>
+  <si>
+    <t>21.08.2025</t>
+  </si>
+  <si>
+    <t>22.08.2025</t>
+  </si>
+  <si>
+    <t>23.08.2025</t>
+  </si>
+  <si>
+    <t>24.08.2025</t>
+  </si>
+  <si>
+    <t>25.08.2025</t>
+  </si>
+  <si>
+    <t>Кобяков Кирилл, Бурых Антон</t>
+  </si>
+  <si>
+    <t>26.08.2025</t>
+  </si>
+  <si>
+    <t>27.08.2025</t>
+  </si>
+  <si>
+    <t>28.08.2025</t>
+  </si>
+  <si>
+    <t>29.08.2025</t>
+  </si>
+  <si>
+    <t>30.08.2025</t>
+  </si>
+  <si>
+    <t>31.08.2025</t>
+  </si>
+  <si>
+    <t>01.09.2025</t>
+  </si>
+  <si>
+    <t>Пенкин Максим, Вавилова Анна</t>
+  </si>
+  <si>
+    <t>02.09.2025</t>
+  </si>
+  <si>
+    <t>03.09.2025</t>
+  </si>
+  <si>
+    <t>04.09.2025</t>
+  </si>
+  <si>
+    <t>05.09.2025</t>
+  </si>
+  <si>
+    <t>06.09.2025</t>
+  </si>
+  <si>
+    <t>07.09.2025</t>
+  </si>
+  <si>
+    <t>Пенкин Максим, Кобяков Кирилл, Бурых Антон</t>
+  </si>
+  <si>
+    <t>08.09.2025</t>
+  </si>
+  <si>
+    <t>09.09.2025</t>
+  </si>
+  <si>
+    <t>Оборотов Василий, Андрианов Владимир</t>
+  </si>
+  <si>
+    <t>10.09.2025</t>
+  </si>
+  <si>
+    <t>11.09.2025</t>
+  </si>
+  <si>
+    <t>12.09.2025</t>
+  </si>
+  <si>
+    <t>13.09.2025</t>
+  </si>
+  <si>
+    <t>15.09.2025</t>
+  </si>
+  <si>
+    <t>Володин Алексей, Оборотов Василий</t>
+  </si>
+  <si>
+    <t>16.09.2025</t>
+  </si>
+  <si>
+    <t>17.09.2025</t>
+  </si>
+  <si>
+    <t>Бурых Антон, Кобяков Кирилл</t>
+  </si>
+  <si>
+    <t>18.09.2025</t>
+  </si>
+  <si>
+    <t>19.09.2025</t>
+  </si>
+  <si>
+    <t>20.09.2025</t>
+  </si>
+  <si>
+    <t>21.09.2025</t>
+  </si>
+  <si>
+    <t>22.09.2025</t>
+  </si>
+  <si>
+    <t>Андрианов Владимир, Пенкин Максим</t>
+  </si>
+  <si>
+    <t>Бурых Антон</t>
+  </si>
+  <si>
+    <t>23.09.2025</t>
+  </si>
+  <si>
+    <t>24.09.2025</t>
+  </si>
+  <si>
+    <t>Вильмискин Алексей, Кобяков Кирилл</t>
+  </si>
+  <si>
+    <t>25.09.2025</t>
+  </si>
+  <si>
+    <t>26.09.2025</t>
+  </si>
+  <si>
+    <t>27.09.2025</t>
+  </si>
+  <si>
+    <t>28.09.2025</t>
+  </si>
+  <si>
+    <t>29.09.2025</t>
+  </si>
+  <si>
+    <t>Бурых Антон, Вильмискин Алексей</t>
+  </si>
+  <si>
+    <t>30.09.2025</t>
+  </si>
+  <si>
+    <t>01.10.2025</t>
+  </si>
+  <si>
+    <t>02.10.2025</t>
+  </si>
+  <si>
+    <t>03.10.2025</t>
+  </si>
+  <si>
+    <t>04.10.2025</t>
+  </si>
+  <si>
+    <t>05.10.2025</t>
+  </si>
+  <si>
+    <t>14.09.2025</t>
+  </si>
+  <si>
+    <t>Зырянов Даниил, Батуров Вячеслав</t>
+  </si>
+  <si>
+    <t>Полунин Вадим, Демин Владимир</t>
   </si>
 </sst>
 </file>
@@ -292,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -306,7 +537,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,52 +960,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03F807C-6ACF-4A12-A9D3-ED5B0F195914}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="11">
-        <v>45890</v>
+      <c r="A2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>31</v>
@@ -783,17 +1013,17 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11">
-        <v>45891</v>
+      <c r="A3" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>31</v>
@@ -801,45 +1031,53 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11">
-        <v>45892</v>
+      <c r="A4" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11">
-        <v>45893</v>
+      <c r="A5" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11">
-        <v>45894</v>
+      <c r="A6" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>31</v>
@@ -847,53 +1085,45 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11">
-        <v>45895</v>
+      <c r="A7" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="11">
-        <v>45896</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="11">
-        <v>45897</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>31</v>
@@ -901,17 +1131,17 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11">
-        <v>45898</v>
+      <c r="A10" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>31</v>
@@ -919,432 +1149,902 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11">
-        <v>45899</v>
+      <c r="A11" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11">
-        <v>45900</v>
+      <c r="A12" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11">
-        <v>45901</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11">
-        <v>45902</v>
-      </c>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11">
-        <v>45903</v>
-      </c>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11">
-        <v>45904</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11">
-        <v>45905</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11">
-        <v>45906</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11">
-        <v>45907</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11">
-        <v>45908</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11">
-        <v>45909</v>
-      </c>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11">
-        <v>45910</v>
-      </c>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11">
-        <v>45911</v>
-      </c>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11">
-        <v>45912</v>
-      </c>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11">
-        <v>45913</v>
-      </c>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="11">
-        <v>45914</v>
-      </c>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="11">
-        <v>45915</v>
-      </c>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="11">
-        <v>45916</v>
-      </c>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="11">
-        <v>45917</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="11">
-        <v>45918</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="11">
-        <v>45919</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="11">
-        <v>45920</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="11">
-        <v>45921</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="11">
-        <v>45922</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="11">
-        <v>45923</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="11">
-        <v>45924</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="11">
-        <v>45925</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="11">
-        <v>45926</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="11">
-        <v>45927</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="11">
-        <v>45928</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="11">
-        <v>45929</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="11">
-        <v>45930</v>
-      </c>
-      <c r="B42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="11">
-        <v>45931</v>
-      </c>
-      <c r="B43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="11">
-        <v>45932</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E44" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="11">
-        <v>45933</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E45" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="11">
-        <v>45934</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="11">
-        <v>45935</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1355,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E517F2-1B90-467E-A143-F03ACB3900D7}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1394,7 +2094,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>45890</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1415,7 +2115,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>45891</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1436,7 +2136,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>45892</v>
       </c>
       <c r="B4" s="1"/>
@@ -1447,7 +2147,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>45893</v>
       </c>
       <c r="B5" s="1"/>
@@ -1458,7 +2158,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>45894</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1481,7 +2181,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>45895</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1504,7 +2204,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>45896</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1527,7 +2227,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>45897</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1550,7 +2250,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>45898</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1573,7 +2273,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>45899</v>
       </c>
       <c r="B11" s="1"/>
@@ -1586,7 +2286,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>45900</v>
       </c>
       <c r="B12" s="1"/>
@@ -1599,8 +2299,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="11">
-        <v>45901</v>
+      <c r="A13" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
@@ -1608,9 +2308,11 @@
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>41</v>
@@ -1620,8 +2322,8 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="11">
-        <v>45902</v>
+      <c r="A14" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>37</v>
@@ -1629,9 +2331,11 @@
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>41</v>
@@ -1641,8 +2345,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="11">
-        <v>45903</v>
+      <c r="A15" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
@@ -1650,9 +2354,11 @@
       <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>41</v>
@@ -1662,8 +2368,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="11">
-        <v>45904</v>
+      <c r="A16" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>37</v>
@@ -1671,9 +2377,11 @@
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>41</v>
@@ -1683,8 +2391,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="11">
-        <v>45905</v>
+      <c r="A17" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>37</v>
@@ -1692,9 +2400,11 @@
       <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>41</v>
@@ -1704,8 +2414,8 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="11">
-        <v>45906</v>
+      <c r="A18" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1717,8 +2427,8 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="11">
-        <v>45907</v>
+      <c r="A19" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1730,8 +2440,8 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="11">
-        <v>45908</v>
+      <c r="A20" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>37</v>
@@ -1741,7 +2451,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>41</v>
@@ -1751,8 +2461,8 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="11">
-        <v>45909</v>
+      <c r="A21" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>37</v>
@@ -1762,7 +2472,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>41</v>
@@ -1772,8 +2482,8 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="11">
-        <v>45910</v>
+      <c r="A22" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>37</v>
@@ -1783,7 +2493,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>41</v>
@@ -1793,8 +2503,8 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="11">
-        <v>45911</v>
+      <c r="A23" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>37</v>
@@ -1804,7 +2514,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>41</v>
@@ -1814,8 +2524,8 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="11">
-        <v>45912</v>
+      <c r="A24" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>37</v>
@@ -1825,7 +2535,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>41</v>
@@ -1835,8 +2545,8 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="11">
-        <v>45913</v>
+      <c r="A25" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1848,8 +2558,8 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="11">
-        <v>45914</v>
+      <c r="A26" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1861,11 +2571,11 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="11">
-        <v>45915</v>
+      <c r="A27" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>36</v>
@@ -1874,7 +2584,7 @@
         <v>35</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>41</v>
@@ -1884,11 +2594,11 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="11">
-        <v>45916</v>
+      <c r="A28" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>36</v>
@@ -1897,7 +2607,7 @@
         <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>41</v>
@@ -1907,11 +2617,11 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="11">
-        <v>45917</v>
+      <c r="A29" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
@@ -1920,7 +2630,7 @@
         <v>35</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>41</v>
@@ -1930,11 +2640,11 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="11">
-        <v>45918</v>
+      <c r="A30" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
@@ -1943,7 +2653,7 @@
         <v>35</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>41</v>
@@ -1953,11 +2663,11 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="11">
-        <v>45919</v>
+      <c r="A31" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>36</v>
@@ -1966,7 +2676,7 @@
         <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>41</v>
@@ -1976,8 +2686,8 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="11">
-        <v>45920</v>
+      <c r="A32" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1989,8 +2699,8 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="11">
-        <v>45921</v>
+      <c r="A33" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2002,20 +2712,20 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="11">
-        <v>45922</v>
+      <c r="A34" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>41</v>
@@ -2023,20 +2733,20 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="11">
-        <v>45923</v>
+      <c r="A35" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>41</v>
@@ -2044,20 +2754,20 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="11">
-        <v>45924</v>
+      <c r="A36" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>41</v>
@@ -2065,20 +2775,20 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="11">
-        <v>45925</v>
+      <c r="A37" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>41</v>
@@ -2086,20 +2796,20 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="11">
-        <v>45926</v>
+      <c r="A38" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>41</v>
@@ -2107,8 +2817,8 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="11">
-        <v>45927</v>
+      <c r="A39" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2118,8 +2828,8 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="11">
-        <v>45928</v>
+      <c r="A40" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2129,11 +2839,11 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="11">
-        <v>45929</v>
+      <c r="A41" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>37</v>
@@ -2142,7 +2852,7 @@
         <v>36</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>41</v>
@@ -2152,11 +2862,11 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="11">
-        <v>45930</v>
+      <c r="A42" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>37</v>
@@ -2165,7 +2875,7 @@
         <v>36</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>41</v>
@@ -2175,11 +2885,11 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="11">
-        <v>45931</v>
+      <c r="A43" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>37</v>
@@ -2188,7 +2898,7 @@
         <v>36</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>41</v>
@@ -2198,11 +2908,11 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="11">
-        <v>45932</v>
+      <c r="A44" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>37</v>
@@ -2211,7 +2921,7 @@
         <v>36</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>41</v>
@@ -2221,11 +2931,11 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="11">
-        <v>45933</v>
+      <c r="A45" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>37</v>
@@ -2234,7 +2944,7 @@
         <v>36</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>41</v>
@@ -2244,7 +2954,7 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>45934</v>
       </c>
       <c r="B46" s="1"/>
@@ -2257,7 +2967,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>45935</v>
       </c>
       <c r="B47" s="1"/>
@@ -2284,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8842FC67-D965-4647-AE49-E30964D40D58}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2322,7 +3032,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3059,7 +3769,7 @@
       <c r="A37" s="4">
         <v>45873</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3081,7 +3791,7 @@
       <c r="A38" s="4">
         <v>45874</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3688,7 +4398,7 @@
         <v>45903</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
@@ -3710,7 +4420,7 @@
         <v>45904</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
@@ -3732,7 +4442,7 @@
         <v>45905</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
@@ -3790,7 +4500,7 @@
         <v>45908</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
@@ -3810,7 +4520,7 @@
         <v>45909</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
@@ -3896,7 +4606,7 @@
         <v>45913</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
@@ -3912,7 +4622,7 @@
         <v>45914</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
@@ -3936,7 +4646,7 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
@@ -3956,7 +4666,7 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
@@ -3976,7 +4686,7 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
@@ -3996,7 +4706,7 @@
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
@@ -4016,7 +4726,7 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
@@ -4036,7 +4746,7 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -4054,7 +4764,7 @@
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>

--- a/data/расписание.xlsx
+++ b/data/расписание.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrris\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA181AE-AEFB-4E87-9AD3-57C8F476C88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C66F941-15B4-48E4-938F-C507647CB41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="495" windowWidth="29040" windowHeight="15720" tabRatio="357" activeTab="3" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
+    <workbookView xWindow="-28920" yWindow="495" windowWidth="29040" windowHeight="15720" tabRatio="357" xr2:uid="{175AAC6D-70E5-4356-ADA7-BD37772576FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybris" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="135">
   <si>
     <t>Комлев Владислав</t>
   </si>
@@ -420,6 +420,30 @@
   </si>
   <si>
     <t>Полунин Вадим, Демин Владимир</t>
+  </si>
+  <si>
+    <t>01.09 9:00 - 08.09 9:00</t>
+  </si>
+  <si>
+    <t>Чупринский Михаил</t>
+  </si>
+  <si>
+    <t>Парфенов Глеб, Кузовлева Светлана</t>
+  </si>
+  <si>
+    <t>08.09 9:00 - 15.09 9:00</t>
+  </si>
+  <si>
+    <t>15.09 9:00 - 22.09 9:00</t>
+  </si>
+  <si>
+    <t>22.09 9:00 - 29.09 9:00</t>
+  </si>
+  <si>
+    <t>29.09 9:00 - 06.10 9:00</t>
+  </si>
+  <si>
+    <t>06.10 9:00 - 13.10 9:00</t>
   </si>
 </sst>
 </file>
@@ -878,14 +902,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E189872A-DE30-4CF8-AAD7-6E4E006B89B5}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -924,22 +948,70 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7"/>
@@ -955,6 +1027,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -962,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03F807C-6ACF-4A12-A9D3-ED5B0F195914}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
@@ -2055,7 +2128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E517F2-1B90-467E-A143-F03ACB3900D7}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
@@ -2994,7 +3067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8842FC67-D965-4647-AE49-E30964D40D58}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
